--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.21251354186806</v>
+        <v>2.824799333333333</v>
       </c>
       <c r="N2">
-        <v>2.21251354186806</v>
+        <v>8.474398000000001</v>
       </c>
       <c r="O2">
-        <v>0.03027400203974254</v>
+        <v>0.03547266316613188</v>
       </c>
       <c r="P2">
-        <v>0.03027400203974254</v>
+        <v>0.04015097612037852</v>
       </c>
       <c r="Q2">
-        <v>15.23869281858926</v>
+        <v>43.40399183084244</v>
       </c>
       <c r="R2">
-        <v>15.23869281858926</v>
+        <v>390.6359264775821</v>
       </c>
       <c r="S2">
-        <v>8.766230550552175E-05</v>
+        <v>0.0002095338747796769</v>
       </c>
       <c r="T2">
-        <v>8.766230550552175E-05</v>
+        <v>0.0002391557953398129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.4528243402408</v>
+        <v>48.60541466666666</v>
       </c>
       <c r="N3">
-        <v>44.4528243402408</v>
+        <v>145.816244</v>
       </c>
       <c r="O3">
-        <v>0.6082515967845856</v>
+        <v>0.6103667195666876</v>
       </c>
       <c r="P3">
-        <v>0.6082515967845856</v>
+        <v>0.6908649476702989</v>
       </c>
       <c r="Q3">
-        <v>306.1689441537588</v>
+        <v>746.8385439744661</v>
       </c>
       <c r="R3">
-        <v>306.1689441537588</v>
+        <v>6721.546895770196</v>
       </c>
       <c r="S3">
-        <v>0.001761271510504438</v>
+        <v>0.003605382070931623</v>
       </c>
       <c r="T3">
-        <v>0.001761271510504438</v>
+        <v>0.00411507694201809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>26.4176175515189</v>
+        <v>0.2081363333333333</v>
       </c>
       <c r="N4">
-        <v>26.4176175515189</v>
+        <v>0.624409</v>
       </c>
       <c r="O4">
-        <v>0.3614744011756717</v>
+        <v>0.002613690097503238</v>
       </c>
       <c r="P4">
-        <v>0.3614744011756717</v>
+        <v>0.002958396672937644</v>
       </c>
       <c r="Q4">
-        <v>181.9514101263635</v>
+        <v>3.198084764853445</v>
       </c>
       <c r="R4">
-        <v>181.9514101263635</v>
+        <v>28.782762883681</v>
       </c>
       <c r="S4">
-        <v>0.001046696084207463</v>
+        <v>1.543883556298669E-05</v>
       </c>
       <c r="T4">
-        <v>0.001046696084207463</v>
+        <v>1.762143234390658E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2310.19956376667</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>2310.19956376667</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.9712494209333227</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.9712494209333227</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.21251354186806</v>
+        <v>0.158694</v>
       </c>
       <c r="N5">
-        <v>2.21251354186806</v>
+        <v>0.476082</v>
       </c>
       <c r="O5">
-        <v>0.03027400203974254</v>
+        <v>0.001992813699033064</v>
       </c>
       <c r="P5">
-        <v>0.03027400203974254</v>
+        <v>0.002255635977132776</v>
       </c>
       <c r="Q5">
-        <v>5111.347819251443</v>
+        <v>2.438386684082</v>
       </c>
       <c r="R5">
-        <v>5111.347819251443</v>
+        <v>21.945480156738</v>
       </c>
       <c r="S5">
-        <v>0.02940360695043417</v>
+        <v>1.177137375101549E-05</v>
       </c>
       <c r="T5">
-        <v>0.02940360695043417</v>
+        <v>1.343549941328798E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2310.19956376667</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>2310.19956376667</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.9712494209333227</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.9712494209333227</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.4528243402408</v>
+        <v>27.8360895</v>
       </c>
       <c r="N6">
-        <v>44.4528243402408</v>
+        <v>55.672179</v>
       </c>
       <c r="O6">
-        <v>0.6082515967845856</v>
+        <v>0.3495541134706443</v>
       </c>
       <c r="P6">
-        <v>0.6082515967845856</v>
+        <v>0.263770043559252</v>
       </c>
       <c r="Q6">
-        <v>102694.8953990207</v>
+        <v>427.7108773722685</v>
       </c>
       <c r="R6">
-        <v>102694.8953990207</v>
+        <v>2566.265264233611</v>
       </c>
       <c r="S6">
-        <v>0.5907640111587976</v>
+        <v>0.002064785141663943</v>
       </c>
       <c r="T6">
-        <v>0.5907640111587976</v>
+        <v>0.001571123311301337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.4176175515189</v>
+        <v>2.824799333333333</v>
       </c>
       <c r="N7">
-        <v>26.4176175515189</v>
+        <v>8.474398000000001</v>
       </c>
       <c r="O7">
-        <v>0.3614744011756717</v>
+        <v>0.03547266316613188</v>
       </c>
       <c r="P7">
-        <v>0.3614744011756717</v>
+        <v>0.04015097612037852</v>
       </c>
       <c r="Q7">
-        <v>61029.9685432737</v>
+        <v>7113.004949601119</v>
       </c>
       <c r="R7">
-        <v>61029.9685432737</v>
+        <v>64017.04454641007</v>
       </c>
       <c r="S7">
-        <v>0.3510818028240907</v>
+        <v>0.03433821235211523</v>
       </c>
       <c r="T7">
-        <v>0.3510818028240907</v>
+        <v>0.03919262455415645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.21251354186806</v>
+        <v>48.60541466666666</v>
       </c>
       <c r="N8">
-        <v>2.21251354186806</v>
+        <v>145.816244</v>
       </c>
       <c r="O8">
-        <v>0.03027400203974254</v>
+        <v>0.6103667195666876</v>
       </c>
       <c r="P8">
-        <v>0.03027400203974254</v>
+        <v>0.6908649476702989</v>
       </c>
       <c r="Q8">
-        <v>136.0656029136658</v>
+        <v>122391.1911269974</v>
       </c>
       <c r="R8">
-        <v>136.0656029136658</v>
+        <v>1101520.720142976</v>
       </c>
       <c r="S8">
-        <v>0.0007827327838028445</v>
+        <v>0.5908465888503051</v>
       </c>
       <c r="T8">
-        <v>0.0007827327838028445</v>
+        <v>0.6743749001391327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.4528243402408</v>
+        <v>0.2081363333333333</v>
       </c>
       <c r="N9">
-        <v>44.4528243402408</v>
+        <v>0.624409</v>
       </c>
       <c r="O9">
-        <v>0.6082515967845856</v>
+        <v>0.002613690097503238</v>
       </c>
       <c r="P9">
-        <v>0.6082515967845856</v>
+        <v>0.002958396672937644</v>
       </c>
       <c r="Q9">
-        <v>2733.768734343339</v>
+        <v>524.0990932424327</v>
       </c>
       <c r="R9">
-        <v>2733.768734343339</v>
+        <v>4716.891839181894</v>
       </c>
       <c r="S9">
-        <v>0.01572631411528348</v>
+        <v>0.002530101705934972</v>
       </c>
       <c r="T9">
-        <v>0.01572631411528348</v>
+        <v>0.002887783593033543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2518.056722</v>
+      </c>
+      <c r="H10">
+        <v>7554.170166</v>
+      </c>
+      <c r="I10">
+        <v>0.9680190120289646</v>
+      </c>
+      <c r="J10">
+        <v>0.9761313009340347</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.158694</v>
+      </c>
+      <c r="N10">
+        <v>0.476082</v>
+      </c>
+      <c r="O10">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P10">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q10">
+        <v>399.600493441068</v>
+      </c>
+      <c r="R10">
+        <v>3596.404440969612</v>
+      </c>
+      <c r="S10">
+        <v>0.001929081548095773</v>
+      </c>
+      <c r="T10">
+        <v>0.002201796880792229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2518.056722</v>
+      </c>
+      <c r="H11">
+        <v>7554.170166</v>
+      </c>
+      <c r="I11">
+        <v>0.9680190120289646</v>
+      </c>
+      <c r="J11">
+        <v>0.9761313009340347</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.8360895</v>
+      </c>
+      <c r="N11">
+        <v>55.672179</v>
+      </c>
+      <c r="O11">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P11">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q11">
+        <v>70092.85227966862</v>
+      </c>
+      <c r="R11">
+        <v>420557.1136780117</v>
+      </c>
+      <c r="S11">
+        <v>0.3383750275725136</v>
+      </c>
+      <c r="T11">
+        <v>0.2574741957669197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.563361</v>
+      </c>
+      <c r="I12">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J12">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.824799333333333</v>
+      </c>
+      <c r="N12">
+        <v>8.474398000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.03547266316613188</v>
+      </c>
+      <c r="P12">
+        <v>0.04015097612037852</v>
+      </c>
+      <c r="Q12">
+        <v>4.296859703519778</v>
+      </c>
+      <c r="R12">
+        <v>38.67173733167801</v>
+      </c>
+      <c r="S12">
+        <v>2.074319953270707E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.367567720185242E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.563361</v>
+      </c>
+      <c r="I13">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J13">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N13">
+        <v>145.816244</v>
+      </c>
+      <c r="O13">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P13">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q13">
+        <v>73.93468455956489</v>
+      </c>
+      <c r="R13">
+        <v>665.4121610360839</v>
+      </c>
+      <c r="S13">
+        <v>0.0003569215706415843</v>
+      </c>
+      <c r="T13">
+        <v>0.0004073797718410853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.563361</v>
+      </c>
+      <c r="I14">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J14">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.624409</v>
+      </c>
+      <c r="O14">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P14">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q14">
+        <v>0.3166004087387778</v>
+      </c>
+      <c r="R14">
+        <v>2.849403678649</v>
+      </c>
+      <c r="S14">
+        <v>1.52839652763749E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.744466795863431E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.563361</v>
+      </c>
+      <c r="I15">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J15">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.158694</v>
+      </c>
+      <c r="N15">
+        <v>0.476082</v>
+      </c>
+      <c r="O15">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P15">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q15">
+        <v>0.241392670178</v>
+      </c>
+      <c r="R15">
+        <v>2.172534031602</v>
+      </c>
+      <c r="S15">
+        <v>1.165329256418007E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.330072502331411E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.8360895</v>
+      </c>
+      <c r="N16">
+        <v>55.672179</v>
+      </c>
+      <c r="O16">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P16">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q16">
+        <v>42.3420417389365</v>
+      </c>
+      <c r="R16">
+        <v>254.052250433619</v>
+      </c>
+      <c r="S16">
+        <v>0.0002044072836945323</v>
+      </c>
+      <c r="T16">
+        <v>0.0001555363034787542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.824799333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.474398000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.03547266316613188</v>
+      </c>
+      <c r="P17">
+        <v>0.04015097612037852</v>
+      </c>
+      <c r="Q17">
+        <v>4.095413847062001</v>
+      </c>
+      <c r="R17">
+        <v>36.858724623558</v>
+      </c>
+      <c r="S17">
+        <v>1.977071453578762E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.256571145937351E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N18">
+        <v>145.816244</v>
+      </c>
+      <c r="O18">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P18">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q18">
+        <v>70.468470421636</v>
+      </c>
+      <c r="R18">
+        <v>634.216233794724</v>
+      </c>
+      <c r="S18">
+        <v>0.0003401883337087489</v>
+      </c>
+      <c r="T18">
+        <v>0.0003882809478848649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H10">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I10">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J10">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>26.4176175515189</v>
-      </c>
-      <c r="N10">
-        <v>26.4176175515189</v>
-      </c>
-      <c r="O10">
-        <v>0.3614744011756717</v>
-      </c>
-      <c r="P10">
-        <v>0.3614744011756717</v>
-      </c>
-      <c r="Q10">
-        <v>1624.635958908139</v>
-      </c>
-      <c r="R10">
-        <v>1624.635958908139</v>
-      </c>
-      <c r="S10">
-        <v>0.0093459022673735</v>
-      </c>
-      <c r="T10">
-        <v>0.0093459022673735</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.624409</v>
+      </c>
+      <c r="O19">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P19">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q19">
+        <v>0.301757513021</v>
+      </c>
+      <c r="R19">
+        <v>2.715817617189</v>
+      </c>
+      <c r="S19">
+        <v>1.456742070950245E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.662682508732296E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.158694</v>
+      </c>
+      <c r="N20">
+        <v>0.476082</v>
+      </c>
+      <c r="O20">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P20">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q20">
+        <v>0.230075672058</v>
+      </c>
+      <c r="R20">
+        <v>2.070681048522</v>
+      </c>
+      <c r="S20">
+        <v>1.110696160084391E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.267715894745734E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.8360895</v>
+      </c>
+      <c r="N21">
+        <v>55.672179</v>
+      </c>
+      <c r="O21">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P21">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q21">
+        <v>40.3569574097265</v>
+      </c>
+      <c r="R21">
+        <v>242.141744458359</v>
+      </c>
+      <c r="S21">
+        <v>0.0001948242385938689</v>
+      </c>
+      <c r="T21">
+        <v>0.0001482444331300693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.824799333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.474398000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.03547266316613188</v>
+      </c>
+      <c r="P22">
+        <v>0.04015097612037852</v>
+      </c>
+      <c r="Q22">
+        <v>183.2000755006727</v>
+      </c>
+      <c r="R22">
+        <v>1099.200453004036</v>
+      </c>
+      <c r="S22">
+        <v>0.0008844030251684855</v>
+      </c>
+      <c r="T22">
+        <v>0.000672954382221035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>48.60541466666666</v>
+      </c>
+      <c r="N23">
+        <v>145.816244</v>
+      </c>
+      <c r="O23">
+        <v>0.6103667195666876</v>
+      </c>
+      <c r="P23">
+        <v>0.6908649476702989</v>
+      </c>
+      <c r="Q23">
+        <v>3152.264846426201</v>
+      </c>
+      <c r="R23">
+        <v>18913.5890785572</v>
+      </c>
+      <c r="S23">
+        <v>0.01521763874110067</v>
+      </c>
+      <c r="T23">
+        <v>0.01157930986942219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2081363333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.624409</v>
+      </c>
+      <c r="O24">
+        <v>0.002613690097503238</v>
+      </c>
+      <c r="P24">
+        <v>0.002958396672937644</v>
+      </c>
+      <c r="Q24">
+        <v>13.49851351603967</v>
+      </c>
+      <c r="R24">
+        <v>80.99108109623801</v>
+      </c>
+      <c r="S24">
+        <v>6.516441740669118E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.95844982555993E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.158694</v>
+      </c>
+      <c r="N25">
+        <v>0.476082</v>
+      </c>
+      <c r="O25">
+        <v>0.001992813699033064</v>
+      </c>
+      <c r="P25">
+        <v>0.002255635977132776</v>
+      </c>
+      <c r="Q25">
+        <v>10.291970986554</v>
+      </c>
+      <c r="R25">
+        <v>61.751825919324</v>
+      </c>
+      <c r="S25">
+        <v>4.968475176977326E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.78058085301817E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>27.8360895</v>
+      </c>
+      <c r="N26">
+        <v>55.672179</v>
+      </c>
+      <c r="O26">
+        <v>0.3495541134706443</v>
+      </c>
+      <c r="P26">
+        <v>0.263770043559252</v>
+      </c>
+      <c r="Q26">
+        <v>1805.287065126095</v>
+      </c>
+      <c r="R26">
+        <v>7221.148260504378</v>
+      </c>
+      <c r="S26">
+        <v>0.008715069234178304</v>
+      </c>
+      <c r="T26">
+        <v>0.004420943744422185</v>
       </c>
     </row>
   </sheetData>
